--- a/dNew.xlsx
+++ b/dNew.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindsay\Dropbox\Raccoon\larvae\oyster\larvae survival stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindsay\Dropbox\Raccoon\larvae\oyster\larvae survival stats\GitHub\RacoonOlyLarvalSurvival\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB15A46C-965A-4ED8-8572-573BF3C76716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4EA5A3-D6D1-4E79-AA0F-35873959FD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7B07CBB7-0123-4BF7-857B-E976CDF55ACC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7B07CBB7-0123-4BF7-857B-E976CDF55ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Treatment</t>
   </si>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5FF670-F8F5-41B0-9AE7-6F828346D942}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -438,16 +438,54 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
